--- a/Touchscreen_PsychoPy2_code/ReversalLearning/GrackleFlex_CONDITIONS_LightPurpleReward.xlsx
+++ b/Touchscreen_PsychoPy2_code/ReversalLearning/GrackleFlex_CONDITIONS_LightPurpleReward.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grackle2/Documents/Touchscreen/FlexibilityReversals/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAE42DAF-0BBA-0F4B-8548-4FE6F9A8D7C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -143,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -195,7 +192,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -389,21 +386,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
@@ -413,7 +410,7 @@
     <col min="6" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,218 +427,223 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B11" si="0">IF(A2="a","violet","purple")</f>
-        <v>violet</v>
+        <f>IF(A2="a","LightPurple","DarkPurple")</f>
+        <v>LightPurple</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C11" si="1">IF(A2="a","purple","violet")</f>
-        <v>purple</v>
+        <f>IF(A2="a","DarkPurple","LightPurple")</f>
+        <v>DarkPurple</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D11" si="2">IF(A2="a","yes","no")</f>
+        <f t="shared" ref="D2:D11" si="0">IF(A2="a","yes","no")</f>
         <v>yes</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E11" si="3">IF(A2="a","no","yes")</f>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E2:E11" si="1">IF(A2="a","no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>purple</v>
+        <f t="shared" ref="B3:B11" si="2">IF(A3="a","LightPurple","DarkPurple")</f>
+        <v>DarkPurple</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="1"/>
-        <v>violet</v>
+        <f>IF(A3="a","DarkPurple","LightPurple")</f>
+        <v>LightPurple</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>no</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>violet</v>
+        <f t="shared" si="2"/>
+        <v>LightPurple</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>purple</v>
+        <f t="shared" ref="C4:C11" si="3">IF(A4="a","DarkPurple","LightPurple")</f>
+        <v>DarkPurple</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>yes</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>purple</v>
+        <f t="shared" si="2"/>
+        <v>DarkPurple</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>violet</v>
+        <f t="shared" si="3"/>
+        <v>LightPurple</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>no</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>violet</v>
+        <f t="shared" si="2"/>
+        <v>LightPurple</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>purple</v>
+        <f t="shared" si="3"/>
+        <v>DarkPurple</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>yes</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>purple</v>
+        <f t="shared" si="2"/>
+        <v>DarkPurple</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>violet</v>
+        <f t="shared" si="3"/>
+        <v>LightPurple</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>no</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>violet</v>
+        <f t="shared" si="2"/>
+        <v>LightPurple</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>purple</v>
+        <f t="shared" si="3"/>
+        <v>DarkPurple</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>yes</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>purple</v>
+        <f t="shared" si="2"/>
+        <v>DarkPurple</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>violet</v>
+        <f t="shared" si="3"/>
+        <v>LightPurple</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>no</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>violet</v>
+        <f t="shared" si="2"/>
+        <v>LightPurple</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>purple</v>
+        <f t="shared" si="3"/>
+        <v>DarkPurple</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>yes</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>purple</v>
+        <f t="shared" si="2"/>
+        <v>DarkPurple</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>violet</v>
+        <f t="shared" si="3"/>
+        <v>LightPurple</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>no</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>yes</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>